--- a/Report of Foresty_20231026/林業署前後測結果/2023林業署訓練班測驗.xlsx
+++ b/Report of Foresty_20231026/林業署前後測結果/2023林業署訓練班測驗.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.40.1.138\Bird Research\BBSTW (20170612)\15_計畫\臺灣獼猴族群監測計畫\與林務局合作\2023\林業署前後測結果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20231026\林業署前後測結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21864" windowHeight="9252" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21864" windowHeight="9252"/>
   </bookViews>
   <sheets>
     <sheet name="解答" sheetId="4" r:id="rId1"/>
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">前測!$A$1:$AG$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">後測!$A$1:$AG$978</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">基本資料!$A$1:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">基本資料!$A$1:$F$86</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="593">
   <si>
     <t>人名</t>
   </si>
@@ -1323,17 +1323,6 @@
     <t>王巧寅</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蕭仁明</t>
-    </r>
-  </si>
-  <si>
     <t>技術士</t>
   </si>
   <si>
@@ -1392,9 +1381,6 @@
   <si>
     <t>竹東工作站</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新竹分署 (11/9上課)</t>
   </si>
   <si>
     <r>
@@ -1445,6 +1431,684 @@
   <si>
     <t>外型辨識</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴、烏頭翁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍腹鷴、大冠鷲、五色鳥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖偉翔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠繡眼、五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍腹鷴、五色鳥、大冠鷲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冠鷲、藍腹鷴、五色鳥、黃頭冠眉、綠腹灰頭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山紅頭、五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭祐程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、地住、綠嘴鳥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、帝雉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、竹雞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金背鳩、五色鳥、大冠鷲、藍腹鷴、樹鵲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、藍腹鷴、大冠鷲、烏頭翁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴、茶腹鳲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、帝雉、黃山雀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡麟崴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、台灣藍鵲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃山雀、五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、帝雉、大冠鷲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠繡眉、五色鳥、大冠鷲、帝雉、台灣繍眉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>繡眼畫眉、五色鳥、大冠鷲、帝雉、綠畫眉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、藍腹鷴、林鵰、烏頭翁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴、灰頭鶯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大冠鷲、五色鳥、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蕭仁明</t>
+    </r>
+  </si>
+  <si>
+    <t>潘文華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴、畫眉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、老鷹、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴、棕面鶯、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、竹雞、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴、綠翼鳩、棕面鶯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金背山雀、白環鸚嘴鵯、五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、灰頭鷦鶯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅頭山雀、五色鳥、大冠鷲、藍腹鷴、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏頭翁、五色鳥、大冠鷲、藍腹鷴、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、藍腹鷴、大冠鷲、棕面鶯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、藍腹鷴、青背山雀、棕面鶯、大冠鷲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴、繡眼畫眉、棕面鶯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五色鳥、大冠鷲、藍腹鷴、白頸翁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠鳩、五色鳥、大冠鷲、藍腹鷴、白環鸚嘴鵯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕面鶯、五色鳥、大冠鷲、藍腹鷴、黃山雀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、15、13、12、16</t>
+  </si>
+  <si>
+    <t>8、15、19、13、1</t>
+  </si>
+  <si>
+    <t>12、16、13、1、7</t>
+  </si>
+  <si>
+    <t>8、15、1、19、13</t>
+  </si>
+  <si>
+    <t>12、15、10、4、19</t>
+  </si>
+  <si>
+    <t>7、2、13、15、19</t>
+  </si>
+  <si>
+    <t>6、14、13、4、11</t>
+  </si>
+  <si>
+    <t>3、20、13、2、16</t>
+  </si>
+  <si>
+    <t>12、14、16、20、6</t>
+  </si>
+  <si>
+    <t>1、3、7、15、12</t>
+  </si>
+  <si>
+    <t>15、1、17、20、19</t>
+  </si>
+  <si>
+    <t>5、8、12、13、19</t>
+  </si>
+  <si>
+    <t>7、13、1、12、4</t>
+  </si>
+  <si>
+    <t>15、3、2、12、7</t>
+  </si>
+  <si>
+    <t>7、12、18、1、15</t>
+  </si>
+  <si>
+    <t>3、2、15、13、7</t>
+  </si>
+  <si>
+    <t>15、14、11、6、19</t>
+  </si>
+  <si>
+    <t>1、2、3、13、20</t>
+  </si>
+  <si>
+    <t>8、16、1、18、9</t>
+  </si>
+  <si>
+    <t>10、3、2、9、14</t>
+  </si>
+  <si>
+    <t>9、19、12、1、4</t>
+  </si>
+  <si>
+    <t>13、3、10、7、15</t>
+  </si>
+  <si>
+    <t>19、15、10、14、1</t>
+  </si>
+  <si>
+    <t>2、10、7、15、13</t>
+  </si>
+  <si>
+    <t>5、7、11、12、3</t>
+  </si>
+  <si>
+    <t>19、13、2、8、20</t>
+  </si>
+  <si>
+    <t>16、13、4、15、19</t>
+  </si>
+  <si>
+    <t>19、3、20、13、15</t>
+  </si>
+  <si>
+    <t>15、16、4、5、3</t>
+  </si>
+  <si>
+    <t>7、8、2、12、16</t>
+  </si>
+  <si>
+    <t>13、19、5、14、10</t>
+  </si>
+  <si>
+    <t>15、1、7、8、20</t>
+  </si>
+  <si>
+    <t>7、16、11、9、18</t>
+  </si>
+  <si>
+    <t>13、20、14、12、19</t>
+  </si>
+  <si>
+    <t>16、14、19、17、1</t>
+  </si>
+  <si>
+    <t>3、7、8、16、13</t>
+  </si>
+  <si>
+    <t>14、9、15、3、7</t>
+  </si>
+  <si>
+    <t>2、4、7、9、16</t>
+  </si>
+  <si>
+    <t>14、19、20、12、1</t>
+  </si>
+  <si>
+    <t>2、4、13、12</t>
+  </si>
+  <si>
+    <t>1、12、13、14、16</t>
+  </si>
+  <si>
+    <t>1、3、9、16、13</t>
+  </si>
+  <si>
+    <t>15、16、14、5、3</t>
+  </si>
+  <si>
+    <t>12、15、2、3、7</t>
+  </si>
+  <si>
+    <t>19、4、15、20、10</t>
+  </si>
+  <si>
+    <t>9、3、20、15、7</t>
+  </si>
+  <si>
+    <t>20、19、7、2、12</t>
+  </si>
+  <si>
+    <t>3、9、7、8、20</t>
+  </si>
+  <si>
+    <t>1、15、16、18、8</t>
+  </si>
+  <si>
+    <t>2、10、15、2、13</t>
+  </si>
+  <si>
+    <t>4、5、8、2、19</t>
+  </si>
+  <si>
+    <t>7、10、15、16、17</t>
+  </si>
+  <si>
+    <t>5、7、6、3、20</t>
+  </si>
+  <si>
+    <t>11、18、10、4、9</t>
+  </si>
+  <si>
+    <t>9、10、15、19、20</t>
+  </si>
+  <si>
+    <t>1、7、12、16、20</t>
+  </si>
+  <si>
+    <t>2、11、13、6、14</t>
+  </si>
+  <si>
+    <t>1、7、9、19、20</t>
+  </si>
+  <si>
+    <t>14、16、5、9</t>
+  </si>
+  <si>
+    <t>10、7、13、1、9</t>
+  </si>
+  <si>
+    <t>15、10、14、1、17</t>
+  </si>
+  <si>
+    <t>15、1、13、3</t>
+  </si>
+  <si>
+    <t>7、8、9、17、10</t>
+  </si>
+  <si>
+    <t>10、5、15、20</t>
+  </si>
+  <si>
+    <t>19、15、1</t>
+  </si>
+  <si>
+    <t>2、7、13</t>
+  </si>
+  <si>
+    <t>15、3、4、16、17</t>
+  </si>
+  <si>
+    <t>5、8、16、19、9</t>
+  </si>
+  <si>
+    <t>4、11、8、6、1</t>
+  </si>
+  <si>
+    <t>10、1、5、16、3</t>
+  </si>
+  <si>
+    <t>1、12、14、19、20</t>
+  </si>
+  <si>
+    <t>2、9、12、13、20</t>
+  </si>
+  <si>
+    <t>4、16、14、9、11</t>
+  </si>
+  <si>
+    <t>3、13、15、8、16</t>
+  </si>
+  <si>
+    <t>1、9、14、15、20</t>
+  </si>
+  <si>
+    <t>20、15、9、3、7、8</t>
+  </si>
+  <si>
+    <t>17、4、18、13、15</t>
+  </si>
+  <si>
+    <t>9、7、2、14、1</t>
+  </si>
+  <si>
+    <t>13、19、4</t>
+  </si>
+  <si>
+    <t>3、14、15、16</t>
+  </si>
+  <si>
+    <t>6、16、19、5、10</t>
+  </si>
+  <si>
+    <t>19、9、8、1、18</t>
+  </si>
+  <si>
+    <t>6、20、19、13、4</t>
+  </si>
+  <si>
+    <t>2、13、1、8、10</t>
+  </si>
+  <si>
+    <t>6、14、20、17、19</t>
+  </si>
+  <si>
+    <t>1、3、16、9、18</t>
+  </si>
+  <si>
+    <t>19、1、8、16、20</t>
+  </si>
+  <si>
+    <t>20、1、6、12、17</t>
+  </si>
+  <si>
+    <t>16、15、12、10、4</t>
+  </si>
+  <si>
+    <t>16、11、18、9、15</t>
+  </si>
+  <si>
+    <t>3、12、15、16、5</t>
+  </si>
+  <si>
+    <t>7、10、13、14、2</t>
+  </si>
+  <si>
+    <t>2、13、19、16、8</t>
+  </si>
+  <si>
+    <t>18、8、1、2、19</t>
+  </si>
+  <si>
+    <t>3、2、14</t>
+  </si>
+  <si>
+    <t>1、15、19、11、14</t>
+  </si>
+  <si>
+    <t>2、13、19、15、7</t>
+  </si>
+  <si>
+    <t>15、19、9、14、1</t>
+  </si>
+  <si>
+    <t>2、15、6、7、13</t>
+  </si>
+  <si>
+    <t>8、15、7、9、18</t>
+  </si>
+  <si>
+    <t>5、15、16、10、12</t>
+  </si>
+  <si>
+    <t>8、15、13、9、16</t>
+  </si>
+  <si>
+    <t>4、13、10、2、15</t>
+  </si>
+  <si>
+    <t>16、13、14、20、5</t>
+  </si>
+  <si>
+    <t>15、14、1、13、20</t>
+  </si>
+  <si>
+    <t>13、6、19、2、14</t>
+  </si>
+  <si>
+    <t>3、9、15、17、10</t>
+  </si>
+  <si>
+    <t>6、8、19、20、13</t>
+  </si>
+  <si>
+    <t>1、9、19、3、20</t>
+  </si>
+  <si>
+    <t>18、1、12、20、11</t>
+  </si>
+  <si>
+    <t>16、15、7、6、9</t>
+  </si>
+  <si>
+    <t>14、6、9、17、15</t>
+  </si>
+  <si>
+    <t>2、20、9、16、15</t>
+  </si>
+  <si>
+    <t>20、1、9、5、14</t>
+  </si>
+  <si>
+    <t>1、7、16、3、19</t>
+  </si>
+  <si>
+    <t>2、10、13、14、9</t>
+  </si>
+  <si>
+    <t>3、8、9、16、13</t>
+  </si>
+  <si>
+    <t>13、20、14、1、6</t>
+  </si>
+  <si>
+    <t>14、10、20、9</t>
+  </si>
+  <si>
+    <t>1、12、5、14、17</t>
+  </si>
+  <si>
+    <t>15、16、20、5、14</t>
+  </si>
+  <si>
+    <t>6、10、11、19、3</t>
+  </si>
+  <si>
+    <t>1、5、13、3、4</t>
+  </si>
+  <si>
+    <t>7、16、4</t>
+  </si>
+  <si>
+    <t>15、9</t>
+  </si>
+  <si>
+    <t>18、13、9、1、19</t>
+  </si>
+  <si>
+    <t>10、3、12、14、17</t>
+  </si>
+  <si>
+    <t>6、14、10、5、20</t>
+  </si>
+  <si>
+    <t>1、3、5、19、13</t>
+  </si>
+  <si>
+    <t>2、7、12、16、19</t>
+  </si>
+  <si>
+    <t>8、16、13、14、20</t>
+  </si>
+  <si>
+    <t>10、2、16、14、13</t>
+  </si>
+  <si>
+    <t>1、9、19、13、14</t>
+  </si>
+  <si>
+    <t>15、8、5、14、1</t>
+  </si>
+  <si>
+    <t>17、7、9、15、13</t>
+  </si>
+  <si>
+    <t>8、1</t>
+  </si>
+  <si>
+    <t>1、8、15、16、18</t>
+  </si>
+  <si>
+    <t>6、12、17</t>
+  </si>
+  <si>
+    <t>17、13、3、19、14</t>
+  </si>
+  <si>
+    <t>16、5、2、8</t>
+  </si>
+  <si>
+    <t>6、15、11、2、16</t>
+  </si>
+  <si>
+    <t>9、15、2、5、19</t>
+  </si>
+  <si>
+    <t>2、9、13</t>
+  </si>
+  <si>
+    <t>1、14</t>
+  </si>
+  <si>
+    <t>6、10、12、14、19</t>
+  </si>
+  <si>
+    <t>7、11、12、13、20</t>
+  </si>
+  <si>
+    <t>1、11、18、7、13</t>
+  </si>
+  <si>
+    <t>3、7、10、15、14</t>
   </si>
 </sst>
 </file>
@@ -1801,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="S2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" s="2">
         <v>3</v>
@@ -2039,13 +2703,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6319,17 +6983,3860 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
+        <v>4</v>
+      </c>
+      <c r="X42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
+        <v>2</v>
+      </c>
+      <c r="U44" s="3">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3">
+        <v>2</v>
+      </c>
+      <c r="W44" s="3">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="3">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3">
+        <v>2</v>
+      </c>
+      <c r="U45" s="3">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2</v>
+      </c>
+      <c r="U46" s="3">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>348</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1</v>
+      </c>
+      <c r="N47" s="3">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2</v>
+      </c>
+      <c r="P47" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2</v>
+      </c>
+      <c r="N48" s="3">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2</v>
+      </c>
+      <c r="U48" s="3">
+        <v>2</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG48" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2</v>
+      </c>
+      <c r="S49" s="3">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
+        <v>2</v>
+      </c>
+      <c r="U49" s="3">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF49" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>353</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3</v>
+      </c>
+      <c r="L50" s="3">
+        <v>4</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
+        <v>4</v>
+      </c>
+      <c r="P50" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1</v>
+      </c>
+      <c r="R50" s="3">
+        <v>4</v>
+      </c>
+      <c r="S50" s="3">
+        <v>5</v>
+      </c>
+      <c r="T50" s="3">
+        <v>2</v>
+      </c>
+      <c r="U50" s="3">
+        <v>5</v>
+      </c>
+      <c r="V50" s="3">
+        <v>4</v>
+      </c>
+      <c r="W50" s="3">
+        <v>5</v>
+      </c>
+      <c r="X50" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG50" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
+        <v>4</v>
+      </c>
+      <c r="M51" s="3">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="3">
+        <v>3</v>
+      </c>
+      <c r="S51" s="3">
+        <v>1</v>
+      </c>
+      <c r="T51" s="3">
+        <v>3</v>
+      </c>
+      <c r="U51" s="3">
+        <v>3</v>
+      </c>
+      <c r="V51" s="3">
+        <v>4</v>
+      </c>
+      <c r="W51" s="3">
+        <v>5</v>
+      </c>
+      <c r="X51" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG51" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1</v>
+      </c>
+      <c r="R52" s="3">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG52" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3</v>
+      </c>
+      <c r="G53" s="3">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>4</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3">
+        <v>4</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3">
+        <v>5</v>
+      </c>
+      <c r="O53" s="3">
+        <v>4</v>
+      </c>
+      <c r="P53" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
+      <c r="R53" s="3">
+        <v>4</v>
+      </c>
+      <c r="S53" s="3">
+        <v>3</v>
+      </c>
+      <c r="T53" s="3">
+        <v>3</v>
+      </c>
+      <c r="U53" s="3">
+        <v>5</v>
+      </c>
+      <c r="V53" s="3">
+        <v>4</v>
+      </c>
+      <c r="W53" s="3">
+        <v>5</v>
+      </c>
+      <c r="X53" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF53" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH53" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1</v>
+      </c>
+      <c r="R54" s="3">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG54" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3">
+        <v>3</v>
+      </c>
+      <c r="G55" s="3">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3">
+        <v>4</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
+        <v>4</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3">
+        <v>5</v>
+      </c>
+      <c r="O55" s="3">
+        <v>4</v>
+      </c>
+      <c r="P55" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3">
+        <v>4</v>
+      </c>
+      <c r="S55" s="3">
+        <v>3</v>
+      </c>
+      <c r="T55" s="3">
+        <v>3</v>
+      </c>
+      <c r="U55" s="3">
+        <v>5</v>
+      </c>
+      <c r="V55" s="3">
+        <v>4</v>
+      </c>
+      <c r="W55" s="3">
+        <v>5</v>
+      </c>
+      <c r="X55" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG55" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH55" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4</v>
+      </c>
+      <c r="I56" s="3">
+        <v>4</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>4</v>
+      </c>
+      <c r="M56" s="3">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3">
+        <v>4</v>
+      </c>
+      <c r="O56" s="3">
+        <v>3</v>
+      </c>
+      <c r="P56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>4</v>
+      </c>
+      <c r="R56" s="3">
+        <v>4</v>
+      </c>
+      <c r="S56" s="3">
+        <v>3</v>
+      </c>
+      <c r="T56" s="3">
+        <v>3</v>
+      </c>
+      <c r="U56" s="3">
+        <v>4</v>
+      </c>
+      <c r="V56" s="3">
+        <v>4</v>
+      </c>
+      <c r="W56" s="3">
+        <v>5</v>
+      </c>
+      <c r="X56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG56" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2</v>
+      </c>
+      <c r="O57" s="3">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2</v>
+      </c>
+      <c r="V57" s="3">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF57" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>337</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>2</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
+        <v>2</v>
+      </c>
+      <c r="V58" s="3">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG58" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH58" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="K59" s="3">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1</v>
+      </c>
+      <c r="R59" s="3">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
+        <v>2</v>
+      </c>
+      <c r="U59" s="3">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG59" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
+        <v>2</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2</v>
+      </c>
+      <c r="U60" s="3">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
+        <v>1</v>
+      </c>
+      <c r="X60" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG60" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <v>4</v>
+      </c>
+      <c r="L61" s="3">
+        <v>4</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3">
+        <v>5</v>
+      </c>
+      <c r="O61" s="3">
+        <v>4</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>5</v>
+      </c>
+      <c r="R61" s="3">
+        <v>4</v>
+      </c>
+      <c r="S61" s="3">
+        <v>1</v>
+      </c>
+      <c r="T61" s="3">
+        <v>2</v>
+      </c>
+      <c r="U61" s="3">
+        <v>3</v>
+      </c>
+      <c r="V61" s="3">
+        <v>4</v>
+      </c>
+      <c r="W61" s="3">
+        <v>2</v>
+      </c>
+      <c r="X61" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG61" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH61" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <v>2</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
+        <v>2</v>
+      </c>
+      <c r="U62" s="3">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
+        <v>1</v>
+      </c>
+      <c r="X62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG62" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>3</v>
+      </c>
+      <c r="G63" s="3">
+        <v>4</v>
+      </c>
+      <c r="H63" s="3">
+        <v>4</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2</v>
+      </c>
+      <c r="K63" s="3">
+        <v>3</v>
+      </c>
+      <c r="L63" s="3">
+        <v>4</v>
+      </c>
+      <c r="M63" s="3">
+        <v>3</v>
+      </c>
+      <c r="N63" s="3">
+        <v>4</v>
+      </c>
+      <c r="O63" s="3">
+        <v>3</v>
+      </c>
+      <c r="P63" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>4</v>
+      </c>
+      <c r="R63" s="3">
+        <v>4</v>
+      </c>
+      <c r="S63" s="3">
+        <v>3</v>
+      </c>
+      <c r="T63" s="3">
+        <v>3</v>
+      </c>
+      <c r="U63" s="3">
+        <v>4</v>
+      </c>
+      <c r="V63" s="3">
+        <v>4</v>
+      </c>
+      <c r="W63" s="3">
+        <v>2</v>
+      </c>
+      <c r="X63" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG63" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>3</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4</v>
+      </c>
+      <c r="H64" s="3">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3">
+        <v>4</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4</v>
+      </c>
+      <c r="K64" s="3">
+        <v>3</v>
+      </c>
+      <c r="L64" s="3">
+        <v>4</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3">
+        <v>3</v>
+      </c>
+      <c r="O64" s="3">
+        <v>3</v>
+      </c>
+      <c r="P64" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>5</v>
+      </c>
+      <c r="R64" s="3">
+        <v>2</v>
+      </c>
+      <c r="S64" s="3">
+        <v>2</v>
+      </c>
+      <c r="T64" s="3">
+        <v>2</v>
+      </c>
+      <c r="U64" s="3">
+        <v>2</v>
+      </c>
+      <c r="V64" s="3">
+        <v>4</v>
+      </c>
+      <c r="W64" s="3">
+        <v>1</v>
+      </c>
+      <c r="X64" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG64" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4</v>
+      </c>
+      <c r="I65" s="3">
+        <v>4</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3</v>
+      </c>
+      <c r="K65" s="3">
+        <v>3</v>
+      </c>
+      <c r="L65" s="3">
+        <v>3</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3">
+        <v>3</v>
+      </c>
+      <c r="P65" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>1</v>
+      </c>
+      <c r="R65" s="3">
+        <v>4</v>
+      </c>
+      <c r="S65" s="3">
+        <v>2</v>
+      </c>
+      <c r="T65" s="3">
+        <v>3</v>
+      </c>
+      <c r="U65" s="3">
+        <v>1</v>
+      </c>
+      <c r="V65" s="3">
+        <v>5</v>
+      </c>
+      <c r="W65" s="3">
+        <v>5</v>
+      </c>
+      <c r="X65" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG65" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2</v>
+      </c>
+      <c r="S66" s="3">
+        <v>2</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2</v>
+      </c>
+      <c r="U66" s="3">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF66" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG66" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="I67" s="3">
+        <v>4</v>
+      </c>
+      <c r="J67" s="3">
+        <v>3</v>
+      </c>
+      <c r="K67" s="3">
+        <v>3</v>
+      </c>
+      <c r="L67" s="3">
+        <v>4</v>
+      </c>
+      <c r="M67" s="3">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3">
+        <v>5</v>
+      </c>
+      <c r="O67" s="3">
+        <v>3</v>
+      </c>
+      <c r="P67" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>5</v>
+      </c>
+      <c r="R67" s="3">
+        <v>3</v>
+      </c>
+      <c r="S67" s="3">
+        <v>2</v>
+      </c>
+      <c r="T67" s="3">
+        <v>2</v>
+      </c>
+      <c r="U67" s="3">
+        <v>2</v>
+      </c>
+      <c r="V67" s="3">
+        <v>4</v>
+      </c>
+      <c r="W67" s="3">
+        <v>5</v>
+      </c>
+      <c r="X67" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE67" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG67" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>3</v>
+      </c>
+      <c r="L68" s="3">
+        <v>4</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
+        <v>4</v>
+      </c>
+      <c r="O68" s="3">
+        <v>2</v>
+      </c>
+      <c r="P68" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>4</v>
+      </c>
+      <c r="R68" s="3">
+        <v>1</v>
+      </c>
+      <c r="S68" s="3">
+        <v>2</v>
+      </c>
+      <c r="T68" s="3">
+        <v>2</v>
+      </c>
+      <c r="U68" s="3">
+        <v>5</v>
+      </c>
+      <c r="V68" s="3">
+        <v>4</v>
+      </c>
+      <c r="W68" s="3">
+        <v>2</v>
+      </c>
+      <c r="X68" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF68" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG68" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>347</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>4</v>
+      </c>
+      <c r="H69" s="3">
+        <v>4</v>
+      </c>
+      <c r="I69" s="3">
+        <v>4</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3</v>
+      </c>
+      <c r="L69" s="3">
+        <v>4</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3">
+        <v>5</v>
+      </c>
+      <c r="O69" s="3">
+        <v>3</v>
+      </c>
+      <c r="P69" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>4</v>
+      </c>
+      <c r="R69" s="3">
+        <v>4</v>
+      </c>
+      <c r="S69" s="3">
+        <v>3</v>
+      </c>
+      <c r="T69" s="3">
+        <v>3</v>
+      </c>
+      <c r="U69" s="3">
+        <v>3</v>
+      </c>
+      <c r="V69" s="3">
+        <v>4</v>
+      </c>
+      <c r="W69" s="3">
+        <v>5</v>
+      </c>
+      <c r="X69" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG69" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2</v>
+      </c>
+      <c r="K70" s="3">
+        <v>3</v>
+      </c>
+      <c r="L70" s="3">
+        <v>4</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3">
+        <v>5</v>
+      </c>
+      <c r="O70" s="3">
+        <v>3</v>
+      </c>
+      <c r="P70" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1</v>
+      </c>
+      <c r="S70" s="3">
+        <v>2</v>
+      </c>
+      <c r="T70" s="3">
+        <v>2</v>
+      </c>
+      <c r="U70" s="3">
+        <v>3</v>
+      </c>
+      <c r="V70" s="3">
+        <v>4</v>
+      </c>
+      <c r="W70" s="3">
+        <v>1</v>
+      </c>
+      <c r="X70" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF70" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG70" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AH70" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4</v>
+      </c>
+      <c r="I71" s="3">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3">
+        <v>3</v>
+      </c>
+      <c r="K71" s="3">
+        <v>3</v>
+      </c>
+      <c r="L71" s="3">
+        <v>4</v>
+      </c>
+      <c r="M71" s="3">
+        <v>3</v>
+      </c>
+      <c r="N71" s="3">
+        <v>4</v>
+      </c>
+      <c r="O71" s="3">
+        <v>3</v>
+      </c>
+      <c r="P71" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>4</v>
+      </c>
+      <c r="R71" s="3">
+        <v>4</v>
+      </c>
+      <c r="S71" s="3">
+        <v>3</v>
+      </c>
+      <c r="T71" s="3">
+        <v>3</v>
+      </c>
+      <c r="U71" s="3">
+        <v>4</v>
+      </c>
+      <c r="V71" s="3">
+        <v>4</v>
+      </c>
+      <c r="W71" s="3">
+        <v>5</v>
+      </c>
+      <c r="X71" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF71" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG71" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2</v>
+      </c>
+      <c r="O72" s="3">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1</v>
+      </c>
+      <c r="R72" s="3">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF72" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2</v>
+      </c>
+      <c r="H73" s="3">
+        <v>4</v>
+      </c>
+      <c r="I73" s="3">
+        <v>4</v>
+      </c>
+      <c r="J73" s="3">
+        <v>3</v>
+      </c>
+      <c r="K73" s="3">
+        <v>4</v>
+      </c>
+      <c r="L73" s="3">
+        <v>4</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1</v>
+      </c>
+      <c r="N73" s="3">
+        <v>5</v>
+      </c>
+      <c r="O73" s="3">
+        <v>4</v>
+      </c>
+      <c r="P73" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>1</v>
+      </c>
+      <c r="R73" s="3">
+        <v>4</v>
+      </c>
+      <c r="S73" s="3">
+        <v>5</v>
+      </c>
+      <c r="T73" s="3">
+        <v>3</v>
+      </c>
+      <c r="U73" s="3">
+        <v>1</v>
+      </c>
+      <c r="V73" s="3">
+        <v>4</v>
+      </c>
+      <c r="W73" s="3">
+        <v>5</v>
+      </c>
+      <c r="X73" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF73" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG73" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" s="3">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3</v>
+      </c>
+      <c r="F74" s="3">
+        <v>4</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4</v>
+      </c>
+      <c r="I74" s="3">
+        <v>4</v>
+      </c>
+      <c r="J74" s="3">
+        <v>3</v>
+      </c>
+      <c r="K74" s="3">
+        <v>4</v>
+      </c>
+      <c r="L74" s="3">
+        <v>4</v>
+      </c>
+      <c r="M74" s="3">
+        <v>1</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <v>2</v>
+      </c>
+      <c r="P74" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>4</v>
+      </c>
+      <c r="R74" s="3">
+        <v>3</v>
+      </c>
+      <c r="S74" s="3">
+        <v>3</v>
+      </c>
+      <c r="T74" s="3">
+        <v>2</v>
+      </c>
+      <c r="U74" s="3">
+        <v>4</v>
+      </c>
+      <c r="V74" s="3">
+        <v>4</v>
+      </c>
+      <c r="W74" s="3">
+        <v>5</v>
+      </c>
+      <c r="X74" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF74" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG74" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>4</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4</v>
+      </c>
+      <c r="I75" s="3">
+        <v>4</v>
+      </c>
+      <c r="J75" s="3">
+        <v>3</v>
+      </c>
+      <c r="K75" s="3">
+        <v>4</v>
+      </c>
+      <c r="L75" s="3">
+        <v>4</v>
+      </c>
+      <c r="M75" s="3">
+        <v>3</v>
+      </c>
+      <c r="N75" s="3">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3">
+        <v>2</v>
+      </c>
+      <c r="P75" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>4</v>
+      </c>
+      <c r="R75" s="3">
+        <v>4</v>
+      </c>
+      <c r="S75" s="3">
+        <v>3</v>
+      </c>
+      <c r="T75" s="3">
+        <v>2</v>
+      </c>
+      <c r="U75" s="3">
+        <v>3</v>
+      </c>
+      <c r="V75" s="3">
+        <v>5</v>
+      </c>
+      <c r="W75" s="3">
+        <v>5</v>
+      </c>
+      <c r="X75" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF75" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="3">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
+        <v>1</v>
+      </c>
+      <c r="X76" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF76" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG76" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4</v>
+      </c>
+      <c r="I77" s="3">
+        <v>4</v>
+      </c>
+      <c r="J77" s="3">
+        <v>3</v>
+      </c>
+      <c r="K77" s="3">
+        <v>4</v>
+      </c>
+      <c r="L77" s="3">
+        <v>4</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+      <c r="N77" s="3">
+        <v>5</v>
+      </c>
+      <c r="O77" s="3">
+        <v>2</v>
+      </c>
+      <c r="P77" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>4</v>
+      </c>
+      <c r="R77" s="3">
+        <v>3</v>
+      </c>
+      <c r="S77" s="3">
+        <v>2</v>
+      </c>
+      <c r="T77" s="3">
+        <v>2</v>
+      </c>
+      <c r="U77" s="3">
+        <v>5</v>
+      </c>
+      <c r="V77" s="3">
+        <v>4</v>
+      </c>
+      <c r="W77" s="3">
+        <v>4</v>
+      </c>
+      <c r="X77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG77" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH77" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4</v>
+      </c>
+      <c r="I78" s="3">
+        <v>4</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1</v>
+      </c>
+      <c r="L78" s="3">
+        <v>4</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1</v>
+      </c>
+      <c r="N78" s="3">
+        <v>5</v>
+      </c>
+      <c r="O78" s="3">
+        <v>3</v>
+      </c>
+      <c r="P78" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>1</v>
+      </c>
+      <c r="R78" s="3">
+        <v>3</v>
+      </c>
+      <c r="S78" s="3">
+        <v>2</v>
+      </c>
+      <c r="T78" s="3">
+        <v>2</v>
+      </c>
+      <c r="U78" s="3">
+        <v>4</v>
+      </c>
+      <c r="V78" s="3">
+        <v>4</v>
+      </c>
+      <c r="W78" s="3">
+        <v>5</v>
+      </c>
+      <c r="X78" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD78" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE78" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF78" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG78" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>592</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG38"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="AH5:AH6 AH8:AH18 AH20:AH24 AH26:AH34 B2:AE41 AH36:AH41">
+  <conditionalFormatting sqref="AH5:AH6 AH8:AH18 AH20:AH24 AH26:AH34 B2:AE41 X42:AE42 AH36:AH71 B42:V78 W43:AE78 AG72:AH78">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6338,13 +10845,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
+      <selection pane="bottomRight" activeCell="AH63" sqref="AH63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10191,10 +14698,3959 @@
         <v>333</v>
       </c>
     </row>
+    <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>4</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
+        <v>5</v>
+      </c>
+      <c r="O38" s="3">
+        <v>4</v>
+      </c>
+      <c r="P38" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3">
+        <v>4</v>
+      </c>
+      <c r="S38" s="3">
+        <v>3</v>
+      </c>
+      <c r="T38" s="3">
+        <v>3</v>
+      </c>
+      <c r="U38" s="3">
+        <v>5</v>
+      </c>
+      <c r="V38" s="3">
+        <v>4</v>
+      </c>
+      <c r="W38" s="3">
+        <v>5</v>
+      </c>
+      <c r="X38" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH38" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4</v>
+      </c>
+      <c r="I39" s="3">
+        <v>4</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <v>5</v>
+      </c>
+      <c r="O39" s="3">
+        <v>4</v>
+      </c>
+      <c r="P39" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>4</v>
+      </c>
+      <c r="S39" s="3">
+        <v>3</v>
+      </c>
+      <c r="T39" s="3">
+        <v>3</v>
+      </c>
+      <c r="U39" s="3">
+        <v>5</v>
+      </c>
+      <c r="V39" s="3">
+        <v>4</v>
+      </c>
+      <c r="W39" s="3">
+        <v>5</v>
+      </c>
+      <c r="X39" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG39" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH39" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>5</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>5</v>
+      </c>
+      <c r="AE40">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG40" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH40" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG41" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH41" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+      <c r="W42">
+        <v>5</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>5</v>
+      </c>
+      <c r="AC42">
+        <v>4</v>
+      </c>
+      <c r="AD42">
+        <v>5</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG42" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH42" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <v>5</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>5</v>
+      </c>
+      <c r="AE43">
+        <v>2</v>
+      </c>
+      <c r="AF43" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG43" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH43" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <v>5</v>
+      </c>
+      <c r="X44">
+        <v>2</v>
+      </c>
+      <c r="Y44">
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AD44">
+        <v>5</v>
+      </c>
+      <c r="AE44">
+        <v>2</v>
+      </c>
+      <c r="AF44" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG44" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH44" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>4</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <v>4</v>
+      </c>
+      <c r="W45">
+        <v>5</v>
+      </c>
+      <c r="X45">
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AD45">
+        <v>5</v>
+      </c>
+      <c r="AE45">
+        <v>2</v>
+      </c>
+      <c r="AF45" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG45" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH45" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <v>4</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46">
+        <v>5</v>
+      </c>
+      <c r="AE46">
+        <v>2</v>
+      </c>
+      <c r="AF46" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG46" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH46" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>4</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>4</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>4</v>
+      </c>
+      <c r="AF47" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG47" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH47" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="V48">
+        <v>4</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>5</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
+      <c r="AD48">
+        <v>5</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG48" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH48" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>5</v>
+      </c>
+      <c r="V49">
+        <v>4</v>
+      </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>5</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>5</v>
+      </c>
+      <c r="AE49">
+        <v>2</v>
+      </c>
+      <c r="AF49" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG49" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH49" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>5</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+      <c r="W50">
+        <v>5</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>5</v>
+      </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
+      <c r="AF50" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG50" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH50" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>5</v>
+      </c>
+      <c r="V51">
+        <v>4</v>
+      </c>
+      <c r="W51">
+        <v>5</v>
+      </c>
+      <c r="X51">
+        <v>2</v>
+      </c>
+      <c r="Y51">
+        <v>2</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>5</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>5</v>
+      </c>
+      <c r="AE51">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG51" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH51" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>5</v>
+      </c>
+      <c r="X52">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>5</v>
+      </c>
+      <c r="AE52">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG52" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH52" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="V53">
+        <v>4</v>
+      </c>
+      <c r="W53">
+        <v>5</v>
+      </c>
+      <c r="X53">
+        <v>3</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
+      </c>
+      <c r="AD53">
+        <v>5</v>
+      </c>
+      <c r="AE53">
+        <v>2</v>
+      </c>
+      <c r="AF53" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG53" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH53" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="V54">
+        <v>4</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>5</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
+      <c r="AD54">
+        <v>5</v>
+      </c>
+      <c r="AE54">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG54" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH54" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>4</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
+      <c r="Z55">
+        <v>3</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55">
+        <v>3</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>4</v>
+      </c>
+      <c r="AE55">
+        <v>4</v>
+      </c>
+      <c r="AF55" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG55" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH55" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="I56" s="9">
+        <v>4</v>
+      </c>
+      <c r="J56" s="9">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9">
+        <v>4</v>
+      </c>
+      <c r="M56" s="9">
+        <v>1</v>
+      </c>
+      <c r="N56" s="9">
+        <v>3</v>
+      </c>
+      <c r="O56" s="9">
+        <v>4</v>
+      </c>
+      <c r="P56" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>4</v>
+      </c>
+      <c r="R56" s="9">
+        <v>1</v>
+      </c>
+      <c r="S56" s="9">
+        <v>3</v>
+      </c>
+      <c r="T56" s="9">
+        <v>3</v>
+      </c>
+      <c r="U56" s="9">
+        <v>5</v>
+      </c>
+      <c r="V56" s="9">
+        <v>4</v>
+      </c>
+      <c r="W56" s="9">
+        <v>4</v>
+      </c>
+      <c r="X56" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC56" s="9">
+        <v>4</v>
+      </c>
+      <c r="AD56" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="9">
+        <v>4</v>
+      </c>
+      <c r="AF56" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG56" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH56" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>5</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>5</v>
+      </c>
+      <c r="AC57">
+        <v>3</v>
+      </c>
+      <c r="AD57">
+        <v>5</v>
+      </c>
+      <c r="AE57">
+        <v>2</v>
+      </c>
+      <c r="AF57" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG57" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AH57" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>3</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>5</v>
+      </c>
+      <c r="V58">
+        <v>4</v>
+      </c>
+      <c r="W58">
+        <v>5</v>
+      </c>
+      <c r="X58">
+        <v>2</v>
+      </c>
+      <c r="Y58">
+        <v>3</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>5</v>
+      </c>
+      <c r="AE58">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG58" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="AH58" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>362</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59">
+        <v>4</v>
+      </c>
+      <c r="W59">
+        <v>5</v>
+      </c>
+      <c r="X59">
+        <v>2</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>2</v>
+      </c>
+      <c r="AB59">
+        <v>2</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>5</v>
+      </c>
+      <c r="AE59">
+        <v>2</v>
+      </c>
+      <c r="AF59" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG59" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH59" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>4</v>
+      </c>
+      <c r="W60">
+        <v>2</v>
+      </c>
+      <c r="X60">
+        <v>2</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>5</v>
+      </c>
+      <c r="AE60">
+        <v>2</v>
+      </c>
+      <c r="AF60" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG60" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH60" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>4</v>
+      </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>5</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>2</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>4</v>
+      </c>
+      <c r="AD61">
+        <v>5</v>
+      </c>
+      <c r="AE61">
+        <v>2</v>
+      </c>
+      <c r="AF61" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG61" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="AH61" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>364</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>5</v>
+      </c>
+      <c r="V62">
+        <v>4</v>
+      </c>
+      <c r="W62">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>3</v>
+      </c>
+      <c r="AA62">
+        <v>5</v>
+      </c>
+      <c r="AB62">
+        <v>2</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AD62">
+        <v>5</v>
+      </c>
+      <c r="AE62">
+        <v>4</v>
+      </c>
+      <c r="AF62" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG62" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH62" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>4</v>
+      </c>
+      <c r="W63">
+        <v>5</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>2</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>3</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63">
+        <v>4</v>
+      </c>
+      <c r="AD63">
+        <v>5</v>
+      </c>
+      <c r="AE63">
+        <v>4</v>
+      </c>
+      <c r="AF63" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG63" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH63" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>5</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
+      </c>
+      <c r="W64">
+        <v>4</v>
+      </c>
+      <c r="X64">
+        <v>2</v>
+      </c>
+      <c r="Y64">
+        <v>3</v>
+      </c>
+      <c r="Z64">
+        <v>3</v>
+      </c>
+      <c r="AA64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>4</v>
+      </c>
+      <c r="AD64">
+        <v>5</v>
+      </c>
+      <c r="AE64">
+        <v>2</v>
+      </c>
+      <c r="AF64" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG64" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH64" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>347</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>5</v>
+      </c>
+      <c r="V65">
+        <v>4</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>4</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>3</v>
+      </c>
+      <c r="AA65">
+        <v>5</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>4</v>
+      </c>
+      <c r="AD65">
+        <v>5</v>
+      </c>
+      <c r="AE65">
+        <v>4</v>
+      </c>
+      <c r="AF65" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG65" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH65" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>5</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>4</v>
+      </c>
+      <c r="W66">
+        <v>5</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
+        <v>3</v>
+      </c>
+      <c r="Z66">
+        <v>5</v>
+      </c>
+      <c r="AA66">
+        <v>3</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>3</v>
+      </c>
+      <c r="AD66">
+        <v>5</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG66" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH66" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>4</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>5</v>
+      </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>5</v>
+      </c>
+      <c r="X67">
+        <v>2</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>4</v>
+      </c>
+      <c r="AA67">
+        <v>5</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>4</v>
+      </c>
+      <c r="AD67">
+        <v>5</v>
+      </c>
+      <c r="AE67">
+        <v>5</v>
+      </c>
+      <c r="AF67" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG67" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH67" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>5</v>
+      </c>
+      <c r="V68">
+        <v>4</v>
+      </c>
+      <c r="W68">
+        <v>5</v>
+      </c>
+      <c r="X68">
+        <v>3</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>2</v>
+      </c>
+      <c r="AA68">
+        <v>5</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>3</v>
+      </c>
+      <c r="AD68">
+        <v>5</v>
+      </c>
+      <c r="AE68">
+        <v>2</v>
+      </c>
+      <c r="AF68" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG68" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH68" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>4</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>5</v>
+      </c>
+      <c r="V69">
+        <v>4</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
+      <c r="X69">
+        <v>2</v>
+      </c>
+      <c r="Y69">
+        <v>2</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>5</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
+      <c r="AD69">
+        <v>5</v>
+      </c>
+      <c r="AE69">
+        <v>2</v>
+      </c>
+      <c r="AF69" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG69" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="AH69" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+      <c r="S70">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>5</v>
+      </c>
+      <c r="V70">
+        <v>4</v>
+      </c>
+      <c r="W70">
+        <v>5</v>
+      </c>
+      <c r="X70">
+        <v>2</v>
+      </c>
+      <c r="Y70">
+        <v>2</v>
+      </c>
+      <c r="Z70">
+        <v>2</v>
+      </c>
+      <c r="AA70">
+        <v>4</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70">
+        <v>3</v>
+      </c>
+      <c r="AD70">
+        <v>5</v>
+      </c>
+      <c r="AE70">
+        <v>2</v>
+      </c>
+      <c r="AF70" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG70" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="AH70" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>5</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+      <c r="X71">
+        <v>4</v>
+      </c>
+      <c r="Y71">
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <v>3</v>
+      </c>
+      <c r="AA71">
+        <v>4</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>3</v>
+      </c>
+      <c r="AD71">
+        <v>5</v>
+      </c>
+      <c r="AE71">
+        <v>4</v>
+      </c>
+      <c r="AF71" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG71" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH71" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>365</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
+        <v>5</v>
+      </c>
+      <c r="V72">
+        <v>4</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>4</v>
+      </c>
+      <c r="Y72">
+        <v>2</v>
+      </c>
+      <c r="Z72">
+        <v>4</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <v>5</v>
+      </c>
+      <c r="AD72">
+        <v>5</v>
+      </c>
+      <c r="AE72">
+        <v>4</v>
+      </c>
+      <c r="AF72" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG72" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="AH72" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>5</v>
+      </c>
+      <c r="V73">
+        <v>4</v>
+      </c>
+      <c r="W73">
+        <v>5</v>
+      </c>
+      <c r="X73">
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>3</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
+        <v>3</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>2</v>
+      </c>
+      <c r="AF73" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG73" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH73" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>5</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>5</v>
+      </c>
+      <c r="X74">
+        <v>3</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>2</v>
+      </c>
+      <c r="AA74">
+        <v>5</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>3</v>
+      </c>
+      <c r="AD74">
+        <v>4</v>
+      </c>
+      <c r="AE74">
+        <v>2</v>
+      </c>
+      <c r="AF74" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG74" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH74" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>4</v>
+      </c>
+      <c r="W75">
+        <v>2</v>
+      </c>
+      <c r="X75">
+        <v>2</v>
+      </c>
+      <c r="Y75">
+        <v>5</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>3</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>5</v>
+      </c>
+      <c r="AE75">
+        <v>2</v>
+      </c>
+      <c r="AF75" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG75" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH75" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AG978"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="AH22 AH15 B30:AE36 AH36 B2:AE28">
+  <conditionalFormatting sqref="AH22 AH15 B30:AE36 AH36 B2:AE28 B38:AE39">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
@@ -10206,10 +18662,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10242,10 +18699,10 @@
         <v>95</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f t="shared" ref="A2:A40" si="0">ROW()-1</f>
         <v>1</v>
@@ -10266,7 +18723,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -10287,7 +18744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10308,7 +18765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10329,7 +18786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10350,7 +18807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10371,7 +18828,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10392,7 +18849,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10413,7 +18870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10434,7 +18891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10455,7 +18912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10476,7 +18933,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10497,7 +18954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10518,7 +18975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10539,7 +18996,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10560,7 +19017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10581,7 +19038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10602,7 +19059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10623,7 +19080,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10644,10 +19101,10 @@
         <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10668,10 +19125,10 @@
         <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10692,10 +19149,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10716,7 +19173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10737,7 +19194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10758,7 +19215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10779,7 +19236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10800,7 +19257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10821,7 +19278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -10842,7 +19299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10863,7 +19320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10884,7 +19341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -10905,7 +19362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10926,7 +19383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -10947,7 +19404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -10968,7 +19425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -10989,7 +19446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -11010,7 +19467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -11028,7 +19485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -11046,7 +19503,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -11067,9 +19524,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <f t="shared" ref="A41:A83" si="1">ROW()-1</f>
+        <f t="shared" ref="A41:A87" si="1">ROW()-1</f>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -11085,7 +19542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -11115,10 +19572,10 @@
         <v>104</v>
       </c>
       <c r="D43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E43" t="s">
         <v>377</v>
-      </c>
-      <c r="E43" t="s">
-        <v>378</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
@@ -11136,10 +19593,10 @@
         <v>104</v>
       </c>
       <c r="D44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" t="s">
         <v>377</v>
-      </c>
-      <c r="E44" t="s">
-        <v>378</v>
       </c>
       <c r="F44" t="s">
         <v>100</v>
@@ -11157,10 +19614,10 @@
         <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F45" t="s">
         <v>106</v>
@@ -11178,10 +19635,10 @@
         <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F46" t="s">
         <v>107</v>
@@ -11199,10 +19656,10 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F47" t="s">
         <v>106</v>
@@ -11220,10 +19677,10 @@
         <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F48" t="s">
         <v>106</v>
@@ -11241,10 +19698,10 @@
         <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F49" t="s">
         <v>106</v>
@@ -11262,10 +19719,10 @@
         <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F50" t="s">
         <v>107</v>
@@ -11283,10 +19740,10 @@
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F51" t="s">
         <v>107</v>
@@ -11304,10 +19761,10 @@
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F52" t="s">
         <v>107</v>
@@ -11325,10 +19782,10 @@
         <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F53" t="s">
         <v>107</v>
@@ -11346,10 +19803,10 @@
         <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F54" t="s">
         <v>106</v>
@@ -11367,10 +19824,10 @@
         <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F55" t="s">
         <v>106</v>
@@ -11388,10 +19845,10 @@
         <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F56" t="s">
         <v>100</v>
@@ -11409,10 +19866,10 @@
         <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F57" t="s">
         <v>100</v>
@@ -11430,10 +19887,10 @@
         <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F58" t="s">
         <v>100</v>
@@ -11448,13 +19905,13 @@
         <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F59" t="s">
         <v>106</v>
@@ -11472,10 +19929,10 @@
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F60" t="s">
         <v>107</v>
@@ -11493,10 +19950,10 @@
         <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F61" t="s">
         <v>106</v>
@@ -11514,10 +19971,10 @@
         <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F62" t="s">
         <v>107</v>
@@ -11535,10 +19992,10 @@
         <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F63" t="s">
         <v>107</v>
@@ -11556,10 +20013,10 @@
         <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F64" t="s">
         <v>106</v>
@@ -11577,10 +20034,10 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F65" t="s">
         <v>100</v>
@@ -11598,10 +20055,10 @@
         <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F66" t="s">
         <v>106</v>
@@ -11619,10 +20076,10 @@
         <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F67" t="s">
         <v>106</v>
@@ -11640,7 +20097,7 @@
         <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E68" t="s">
         <v>112</v>
@@ -11661,7 +20118,7 @@
         <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E69" t="s">
         <v>112</v>
@@ -11682,7 +20139,7 @@
         <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
         <v>112</v>
@@ -11697,19 +20154,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11724,7 +20181,7 @@
         <v>112</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
         <v>115</v>
@@ -11745,7 +20202,7 @@
         <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E73" t="s">
         <v>115</v>
@@ -11766,7 +20223,7 @@
         <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" t="s">
         <v>112</v>
@@ -11787,7 +20244,7 @@
         <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E75" t="s">
         <v>112</v>
@@ -11808,7 +20265,7 @@
         <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
         <v>112</v>
@@ -11829,7 +20286,7 @@
         <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E77" t="s">
         <v>112</v>
@@ -11850,10 +20307,10 @@
         <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F78" t="s">
         <v>100</v>
@@ -11871,7 +20328,7 @@
         <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E79" t="s">
         <v>112</v>
@@ -11892,7 +20349,7 @@
         <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E80" t="s">
         <v>112</v>
@@ -11913,7 +20370,7 @@
         <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E81" t="s">
         <v>112</v>
@@ -11927,20 +20384,20 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>374</v>
+      <c r="B82" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
         <v>376</v>
-      </c>
-      <c r="D82" t="s">
-        <v>377</v>
       </c>
       <c r="E82" t="s">
         <v>112</v>
       </c>
       <c r="F82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -11949,20 +20406,98 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C83" t="s">
         <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>376</v>
+      </c>
+      <c r="E85" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>376</v>
+      </c>
+      <c r="E86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" t="s">
+        <v>376</v>
+      </c>
+      <c r="E87" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F83"/>
+  <autoFilter ref="A1:F86">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="新竹分署 (11/8上課)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11973,7 +20508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -12246,7 +20781,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
